--- a/biology/Botanique/Drave_des_murs/Drave_des_murs.xlsx
+++ b/biology/Botanique/Drave_des_murs/Drave_des_murs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Draba muralis
 La drave des murs (Draba muralis), également appelée drave des murailles, est une espèce de plante herbacée annuelle ou bisannuelle du genre Draba et de la famille des Brassicacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 8 à 45 cm dont les feuilles caulinaires sessiles, dentées, embrassent la tige par des oreillettes arrondies. Les fleurs blanches de 2 à 4 mm de diamètre sont d'abord serrées au sommet des tiges puis s'écartent les unes des autres au fur et à mesure que les tiges s'allongent. Le fruit est une silicule glabre de 4-6 mm de long, porté par un pédicelle de 5 à 12 mm étalé.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies et pelouses, milieux rocheux, vieux murs, éboulis, falaises jusqu'à 1 500 mètres en montagne. 
 </t>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe (sauf le Nord), Afrique du Nord, Madère, Asie mineure.
 </t>
@@ -605,7 +623,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France cette espèce est protégée en Alsace et en Île-de-France (Article 1).
 Sur les autres projets Wikimedia :
